--- a/webroot/エクセル出力/test_y.xlsx
+++ b/webroot/エクセル出力/test_y.xlsx
@@ -15,21 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>xxx</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>yyy</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -59,15 +50,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,37 +436,122 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="F1:G6"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>

--- a/webroot/エクセル出力/test_y.xlsx
+++ b/webroot/エクセル出力/test_y.xlsx
@@ -50,7 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -104,6 +104,28 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -112,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -136,6 +158,24 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,16 +479,16 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -458,10 +498,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -471,8 +511,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -551,6 +591,8 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="F1:G6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
